--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B19825-B0DB-E347-A773-44B049DF8F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1E6CC7-489F-544A-89EA-7A216A4E762B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9460" yWindow="-27500" windowWidth="38860" windowHeight="26240" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
+    <workbookView xWindow="7800" yWindow="-28300" windowWidth="38860" windowHeight="26240" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="277">
   <si>
     <t>Title</t>
   </si>
@@ -2563,7 +2563,38 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
+    <t>N052</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>N053</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>N054</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>人行道改善</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>依據陳情改善人行道</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/635656131872972/?mibextid=uJjRxr</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
     &lt;!-- Flex Container --&gt;
     &lt;div class="flex flex-col md:flex-row rounded-l-xl"&gt;
       &lt;!-- Image --&gt;
@@ -2572,7 +2603,17 @@
       &lt;!-- Content --&gt;
       &lt;div class="p-2 md:p-4"&gt;
         &lt;h3 class=""&gt;
-         傾聽在地民意，停車格畫設 #文桃路先行、 #牛角坡路暫緩
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傾聽在地民意，停車格畫設 #文桃路先行、 #牛角坡路暫緩
         &lt;/h3&gt;
         &lt;p class=""max-w-sm my-4  leading-5 tracking-wide ""&gt;
          &lt;a href="https://www.facebook.com/groups/a7xinlinkou/permalink/627343239370928/?mibextid=uJjRxr"&gt; 2023/11/20日&lt;/a&gt;
@@ -2580,6 +2621,145 @@
 停車空間不足，桃園市整體的大眾運輸環境也尚未成熟（這部分我會另外專篇來寫），現階段僅能朝向路邊規劃，因此有了前陣子交通局規劃的牛角坡路縮減車道畫設車格被抗議乙案。&lt;br&gt;
 今日里長特別邀請各社區們來聽聽大家的想法，還有議員們、交通局等單位共同會勘，考量路幅及車流量，決議先試辦畫設文桃路路邊機車、汽車停車格。
 牛角坡路因為本來就只有四線道，且未來變二道路也是四線道，即將施工完成，不宜縮減車道造成不對稱，因此先暫緩停車格畫設，待觀察文桃路畫設成效後而定。    &lt;/p&gt;
+      &lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/645264354245483/?mibextid=uJjRxr</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>文青非營利幼兒園的家長接送區改善</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>學區步道改善</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
+    &lt;!-- Flex Container --&gt;
+    &lt;div class="flex flex-col md:flex-row rounded-l-xl"&gt;
+      &lt;!-- Image --&gt;
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-052.png" alt=""
+        class=" object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;
+      &lt;!-- Content --&gt;
+      &lt;div class="p-2 md:p-4"&gt;
+        &lt;h3 class=""&gt;
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>傾聽民意！改善人行道
+        &lt;/h3&gt;
+        &lt;p class=""max-w-sm my-4  leading-5 tracking-wide ""&gt;
+舊路的長輩跟我陳情，斑馬線連接的地方沒有斜坡道，以致輪椅無法上去，我馬上協助協調華亞科施作，一個禮拜多就馬上完工！效率非常好    &lt;/p&gt;
+      &lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>促成A7郵園公園1/5開放</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>社區公園開放</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/645444307560821/?mibextid=uJjRxr</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
+    &lt;!-- Flex Container --&gt;
+    &lt;div class="flex flex-col md:flex-row rounded-l-xl"&gt;
+      &lt;!-- Image --&gt;
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-053.png" alt=""
+        class=" object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;
+      &lt;!-- Content --&gt;
+      &lt;div class="p-2 md:p-4"&gt;
+        &lt;h3 class=""&gt;
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>改善文青非營利幼兒園的家長接送區
+        &lt;/h3&gt;
+        &lt;p class=""max-w-sm my-4  leading-5 tracking-wide ""&gt;
+雅倫會勘的大湖、文青非營利幼兒園家長接送區陸續完工</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>✅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>家長們可以不用冒著危險接送小小朋友了～    &lt;/p&gt;
+      &lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
+    &lt;!-- Flex Container --&gt;
+    &lt;div class="flex flex-col md:flex-row rounded-l-xl"&gt;
+      &lt;!-- Image --&gt;
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-054.png" alt=""
+        class=" object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;
+      &lt;!-- Content --&gt;
+      &lt;div class="p-2 md:p-4"&gt;
+        &lt;h3 class=""&gt;
+         A7郵園公園1/5開放！
+        &lt;/h3&gt;
+        &lt;p class=""max-w-sm my-4  leading-5 tracking-wide ""&gt;
+這座產權屬於郵政的公園，因為沒有先例、沒有備查機關，雅倫幾經周折後終於確認備查機關。
+結果遊具已放太久不符合檢驗標準，在雅倫與議員同事、郵政、鄭運鵬委員、特公盟、黃錦芳里長一直不斷努力之下～終於完成遊具更新、重送檢驗、確定備查✅
+孩子終於有個公園可以玩了～！    &lt;/p&gt;
       &lt;/div&gt;
     &lt;/div&gt;
   &lt;/div&gt;</t>
@@ -2869,7 +3049,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3012,6 +3192,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3329,9 +3521,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -3384,47 +3576,47 @@
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12" ht="409.6">
-      <c r="A2" s="14" t="s">
-        <v>256</v>
+    <row r="2" spans="1:12" ht="335">
+      <c r="A2" s="48" t="s">
+        <v>273</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20">
-        <v>45250</v>
+        <v>272</v>
+      </c>
+      <c r="G2" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" s="49"/>
+      <c r="I2" s="50">
+        <v>45287</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>259</v>
-      </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="1:12" ht="409.6">
-      <c r="A3" s="14" t="s">
-        <v>254</v>
+        <v>274</v>
+      </c>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+    </row>
+    <row r="3" spans="1:12" ht="319">
+      <c r="A3" s="48" t="s">
+        <v>270</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>262</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>13</v>
@@ -3433,62 +3625,62 @@
         <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20">
-        <v>45229</v>
+        <v>269</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50">
+        <v>45287</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-    </row>
-    <row r="4" spans="1:12" ht="409.6">
-      <c r="A4" s="14" t="s">
-        <v>251</v>
+        <v>268</v>
+      </c>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+    </row>
+    <row r="4" spans="1:12" ht="332">
+      <c r="A4" s="48" t="s">
+        <v>264</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>191</v>
+        <v>261</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20">
-        <v>45230</v>
+        <v>265</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50">
+        <v>45268</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>244</v>
-      </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
+        <v>266</v>
+      </c>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
     </row>
     <row r="5" spans="1:12" ht="409.6">
       <c r="A5" s="14" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>257</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>13</v>
@@ -3497,46 +3689,46 @@
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="20">
-        <v>45238</v>
+        <v>45250</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" ht="409.6">
       <c r="A6" s="14" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="20">
-        <v>45247</v>
+        <v>45229</v>
       </c>
       <c r="J6" s="47" t="s">
         <v>244</v>
@@ -3544,76 +3736,76 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12" ht="335">
+    <row r="7" spans="1:12" ht="409.6">
       <c r="A7" s="14" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>14</v>
+      <c r="D7" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="20">
-        <v>45246</v>
+        <v>45230</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
     </row>
-    <row r="8" spans="1:12" ht="335">
+    <row r="8" spans="1:12" ht="409.6">
       <c r="A8" s="14" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>191</v>
+        <v>245</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="20">
-        <v>45237</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>192</v>
+        <v>45238</v>
+      </c>
+      <c r="J8" s="47" t="s">
+        <v>244</v>
       </c>
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="1:12" ht="380">
+    <row r="9" spans="1:12" ht="409.6">
       <c r="A9" s="14" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>28</v>
@@ -3625,126 +3817,126 @@
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="20">
-        <v>45238</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>188</v>
+        <v>45247</v>
+      </c>
+      <c r="J9" s="47" t="s">
+        <v>244</v>
       </c>
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:12" ht="409.6">
+    <row r="10" spans="1:12" ht="335">
       <c r="A10" s="14" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="20">
-        <v>45238</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>185</v>
+        <v>45246</v>
+      </c>
+      <c r="J10" s="47" t="s">
+        <v>239</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:12" ht="178">
+    <row r="11" spans="1:12" ht="335">
       <c r="A11" s="14" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>190</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="20">
-        <v>45233</v>
+        <v>45237</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
     </row>
-    <row r="12" spans="1:12" ht="307">
+    <row r="12" spans="1:12" ht="380">
       <c r="A12" s="14" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>174</v>
+        <v>186</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="20">
-        <v>45233</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>176</v>
+        <v>45238</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>188</v>
       </c>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
     </row>
-    <row r="13" spans="1:12" ht="191">
-      <c r="A13" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>168</v>
+    <row r="13" spans="1:12" ht="409.6">
+      <c r="A13" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>13</v>
@@ -3752,92 +3944,95 @@
       <c r="E13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="I13" s="27">
-        <v>45225</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="169">
-      <c r="A14" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="16" t="s">
+      <c r="F13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20">
+        <v>45238</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+    </row>
+    <row r="14" spans="1:12" ht="178">
+      <c r="A14" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20">
+        <v>45233</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+    </row>
+    <row r="15" spans="1:12" ht="307">
+      <c r="A15" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="31">
-        <v>45204</v>
-      </c>
-      <c r="J14" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="1:12" ht="164">
-      <c r="A15" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="35">
-        <v>45181</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-    </row>
-    <row r="16" spans="1:12" ht="195">
-      <c r="A16" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>12</v>
+      <c r="D15" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20">
+        <v>45233</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" spans="1:12" ht="191">
+      <c r="A16" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>13</v>
@@ -3845,64 +4040,57 @@
       <c r="E16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="I16" s="35">
-        <v>45159</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-    </row>
-    <row r="17" spans="1:12" ht="222">
-      <c r="A17" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="F16" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="I16" s="27">
+        <v>45225</v>
+      </c>
+      <c r="J16" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="169">
+      <c r="A17" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="I17" s="35">
-        <v>45157</v>
-      </c>
-      <c r="J17" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-    </row>
-    <row r="18" spans="1:12" ht="224">
+        <v>14</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="31">
+        <v>45204</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+    </row>
+    <row r="18" spans="1:12" ht="164">
       <c r="A18" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>12</v>
@@ -3914,27 +4102,27 @@
         <v>19</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>231</v>
+        <v>20</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="35">
-        <v>45138</v>
-      </c>
-      <c r="J18" s="38" t="s">
-        <v>34</v>
+        <v>45181</v>
+      </c>
+      <c r="J18" s="36" t="s">
+        <v>21</v>
       </c>
       <c r="K18" s="37"/>
       <c r="L18" s="37"/>
     </row>
-    <row r="19" spans="1:12" ht="67">
+    <row r="19" spans="1:12" ht="195">
       <c r="A19" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>36</v>
+        <v>22</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>12</v>
@@ -3946,61 +4134,65 @@
         <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="H19" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="I19" s="35">
-        <v>45103</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>38</v>
+        <v>45159</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>25</v>
       </c>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
     </row>
-    <row r="20" spans="1:12" ht="178">
+    <row r="20" spans="1:12" ht="222">
       <c r="A20" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="H20" s="4"/>
+        <v>230</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="I20" s="35">
-        <v>45092</v>
-      </c>
-      <c r="J20" s="38" t="s">
-        <v>42</v>
+        <v>45157</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
     </row>
-    <row r="21" spans="1:12" ht="149">
+    <row r="21" spans="1:12" ht="224">
       <c r="A21" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -4010,30 +4202,30 @@
         <v>19</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>233</v>
+        <v>33</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>231</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="35">
-        <v>45071</v>
+        <v>45138</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="1:12" ht="409.6">
+    <row r="22" spans="1:12" ht="67">
       <c r="A22" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>13</v>
@@ -4042,59 +4234,59 @@
         <v>19</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="35">
-        <v>45058</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>50</v>
+        <v>45103</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12" ht="409.6">
+    <row r="23" spans="1:12" ht="178">
       <c r="A23" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="35">
-        <v>45057</v>
+        <v>45092</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="1:12" ht="208">
+    <row r="24" spans="1:12" ht="149">
       <c r="A24" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>56</v>
+        <v>43</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>12</v>
@@ -4106,91 +4298,91 @@
         <v>19</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="35">
-        <v>45051</v>
+        <v>45071</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
     </row>
     <row r="25" spans="1:12" ht="409.6">
       <c r="A25" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="35">
-        <v>45029</v>
+        <v>45058</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
     </row>
     <row r="26" spans="1:12" ht="409.6">
       <c r="A26" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>52</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="35">
-        <v>45029</v>
+        <v>45057</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="1:12" ht="272">
+    <row r="27" spans="1:12" ht="208">
       <c r="A27" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>69</v>
+        <v>55</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>12</v>
@@ -4201,28 +4393,28 @@
       <c r="E27" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F27" s="37" t="s">
-        <v>70</v>
+      <c r="F27" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="35">
-        <v>45027</v>
+        <v>45051</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="1:12" ht="115">
+    <row r="28" spans="1:12" ht="409.6">
       <c r="A28" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>73</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>60</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>12</v>
@@ -4234,30 +4426,30 @@
         <v>14</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="35">
-        <v>45024</v>
+        <v>45029</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="1:12" ht="112">
+    <row r="29" spans="1:12" ht="409.6">
       <c r="A29" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>77</v>
+        <v>64</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>65</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>13</v>
@@ -4266,27 +4458,27 @@
         <v>14</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="35">
-        <v>45020</v>
+        <v>45029</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:12" ht="96">
-      <c r="A30" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>81</v>
+    <row r="30" spans="1:12" ht="272">
+      <c r="A30" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>12</v>
@@ -4295,129 +4487,129 @@
         <v>13</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>82</v>
+        <v>19</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>70</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="35">
-        <v>45016</v>
-      </c>
-      <c r="J30" s="37" t="s">
-        <v>84</v>
+        <v>45027</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>71</v>
       </c>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12" ht="48">
+    <row r="31" spans="1:12" ht="115">
       <c r="A31" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="H31" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H31" s="4"/>
       <c r="I31" s="35">
-        <v>45002</v>
-      </c>
-      <c r="J31" s="41" t="s">
-        <v>88</v>
+        <v>45024</v>
+      </c>
+      <c r="J31" s="38" t="s">
+        <v>75</v>
       </c>
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="1:12" ht="176">
+    <row r="32" spans="1:12" ht="112">
       <c r="A32" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>90</v>
+        <v>76</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>77</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H32" s="3"/>
+        <v>78</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H32" s="4"/>
       <c r="I32" s="35">
-        <v>45001</v>
-      </c>
-      <c r="J32" s="41" t="s">
-        <v>94</v>
+        <v>45020</v>
+      </c>
+      <c r="J32" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
     </row>
-    <row r="33" spans="1:12" ht="208">
-      <c r="A33" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>28</v>
+    <row r="33" spans="1:12" ht="96">
+      <c r="A33" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H33" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="4"/>
       <c r="I33" s="35">
-        <v>45001</v>
-      </c>
-      <c r="J33" s="41" t="s">
-        <v>99</v>
+        <v>45016</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="K33" s="37"/>
       <c r="L33" s="37"/>
     </row>
-    <row r="34" spans="1:12" ht="192">
+    <row r="34" spans="1:12" ht="48">
       <c r="A34" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>101</v>
+        <v>85</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>86</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>13</v>
@@ -4426,30 +4618,30 @@
         <v>19</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="35">
-        <v>45000</v>
+        <v>45002</v>
       </c>
       <c r="J34" s="41" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
     </row>
-    <row r="35" spans="1:12" ht="240">
-      <c r="A35" s="42" t="s">
-        <v>105</v>
+    <row r="35" spans="1:12" ht="176">
+      <c r="A35" s="33" t="s">
+        <v>89</v>
       </c>
       <c r="B35" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>28</v>
+        <v>90</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>13</v>
@@ -4457,88 +4649,95 @@
       <c r="E35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>107</v>
+      <c r="F35" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I35" s="27">
-        <v>44999</v>
-      </c>
-      <c r="J35" s="43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="240">
-      <c r="A36" s="42" t="s">
-        <v>109</v>
+        <v>93</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="35">
+        <v>45001</v>
+      </c>
+      <c r="J35" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+    </row>
+    <row r="36" spans="1:12" ht="208">
+      <c r="A36" s="33" t="s">
+        <v>95</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>111</v>
+        <v>19</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="27">
-        <v>44998</v>
-      </c>
-      <c r="J36" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="395">
-      <c r="A37" s="42" t="s">
-        <v>112</v>
+        <v>98</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="35">
+        <v>45001</v>
+      </c>
+      <c r="J36" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+    </row>
+    <row r="37" spans="1:12" ht="192">
+      <c r="A37" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="27">
-        <v>44993</v>
-      </c>
-      <c r="J37" s="44" t="s">
-        <v>115</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" s="3"/>
+      <c r="I37" s="35">
+        <v>45000</v>
+      </c>
+      <c r="J37" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
     </row>
     <row r="38" spans="1:12" ht="240">
       <c r="A38" s="42" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>13</v>
@@ -4547,28 +4746,27 @@
         <v>19</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="H38" s="6"/>
+        <v>107</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>216</v>
+      </c>
       <c r="I38" s="27">
-        <v>44992</v>
-      </c>
-      <c r="J38" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="208">
+        <v>44999</v>
+      </c>
+      <c r="J38" s="43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="240">
       <c r="A39" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>120</v>
+        <v>109</v>
+      </c>
+      <c r="B39" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>13</v>
@@ -4577,85 +4775,85 @@
         <v>14</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>122</v>
+        <v>111</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="27">
-        <v>44991</v>
+        <v>44998</v>
       </c>
       <c r="J39" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="112">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="395">
       <c r="A40" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>124</v>
+        <v>112</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>113</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="27">
-        <v>44985</v>
+        <v>44993</v>
       </c>
       <c r="J40" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="335">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="240">
       <c r="A41" s="42" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="27">
-        <v>44973</v>
+        <v>44992</v>
       </c>
       <c r="J41" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="80">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="208">
       <c r="A42" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>130</v>
+        <v>119</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>120</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>12</v>
@@ -4664,28 +4862,28 @@
         <v>13</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="27">
-        <v>44969</v>
+        <v>44991</v>
       </c>
       <c r="J42" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="128">
+    <row r="43" spans="1:12" ht="112">
       <c r="A43" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>133</v>
+        <v>123</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>91</v>
@@ -4697,28 +4895,28 @@
         <v>19</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="27">
-        <v>44965</v>
+        <v>44985</v>
       </c>
       <c r="J43" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="160">
+    <row r="44" spans="1:12" ht="335">
       <c r="A44" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>136</v>
+        <v>126</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>13</v>
@@ -4726,81 +4924,86 @@
       <c r="E44" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="5"/>
+      <c r="F44" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="G44" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="27">
-        <v>44964</v>
+        <v>44973</v>
       </c>
       <c r="J44" s="44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="224">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="80">
       <c r="A45" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>138</v>
+        <v>129</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="8" t="s">
-        <v>217</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="H45" s="6"/>
       <c r="I45" s="27">
-        <v>44958</v>
+        <v>44969</v>
       </c>
       <c r="J45" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="365">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="128">
       <c r="A46" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>140</v>
+        <v>132</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="27">
-        <v>44942</v>
+        <v>44965</v>
       </c>
       <c r="J46" s="44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="224">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="160">
       <c r="A47" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>144</v>
+        <v>135</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>28</v>
@@ -4809,87 +5012,86 @@
         <v>13</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="F47" s="5"/>
       <c r="G47" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="27">
-        <v>44937</v>
+        <v>44964</v>
       </c>
       <c r="J47" s="44" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="128">
+    <row r="48" spans="1:12" ht="224">
       <c r="A48" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>147</v>
+        <v>137</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H48" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="F48" s="5"/>
+      <c r="G48" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="I48" s="27">
-        <v>44937</v>
+        <v>44958</v>
       </c>
       <c r="J48" s="44" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="409.6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="365">
       <c r="A49" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>152</v>
+        <v>139</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F49" s="26"/>
+        <v>14</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="G49" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="27">
-        <v>44915</v>
+        <v>44942</v>
       </c>
       <c r="J49" s="44" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="128">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="224">
       <c r="A50" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>158</v>
+        <v>143</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>144</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>13</v>
@@ -4897,25 +5099,24 @@
       <c r="E50" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>218</v>
-      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" s="6"/>
       <c r="I50" s="27">
-        <v>44910</v>
+        <v>44937</v>
       </c>
       <c r="J50" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="176">
-      <c r="A51" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>161</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="128">
+      <c r="A51" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>147</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>12</v>
@@ -4926,87 +5127,177 @@
       <c r="E51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F51" s="26"/>
-      <c r="G51" s="8" t="s">
+      <c r="F51" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H51" s="7"/>
+      <c r="I51" s="27">
+        <v>44937</v>
+      </c>
+      <c r="J51" s="44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="409.6">
+      <c r="A52" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F52" s="26"/>
+      <c r="G52" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H52" s="6"/>
+      <c r="I52" s="27">
+        <v>44915</v>
+      </c>
+      <c r="J52" s="44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="144">
+      <c r="A53" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="I53" s="27">
+        <v>44910</v>
+      </c>
+      <c r="J53" s="44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="176">
+      <c r="A54" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="26"/>
+      <c r="G54" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="I51" s="27">
+      <c r="I54" s="27">
         <v>44903</v>
       </c>
-      <c r="J51" s="44" t="s">
+      <c r="J54" s="44" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="192">
-      <c r="A52" s="24" t="s">
+    <row r="55" spans="1:10" ht="192">
+      <c r="A55" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B55" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C55" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D55" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E55" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="26" t="s">
+      <c r="F55" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G55" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="I52" s="27">
+      <c r="I55" s="27">
         <v>44576</v>
       </c>
-      <c r="J52" s="44" t="s">
+      <c r="J55" s="44" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G31" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
-    <hyperlink ref="G36" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
-    <hyperlink ref="G40" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
-    <hyperlink ref="G37" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
-    <hyperlink ref="G38" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
-    <hyperlink ref="G41" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
-    <hyperlink ref="F42" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
-    <hyperlink ref="F43" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
-    <hyperlink ref="G49" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
-    <hyperlink ref="G51" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
-    <hyperlink ref="J15" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
-    <hyperlink ref="J16" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
-    <hyperlink ref="J17" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
-    <hyperlink ref="J18" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
-    <hyperlink ref="J19" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
-    <hyperlink ref="J20" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
-    <hyperlink ref="J21" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
-    <hyperlink ref="J23" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
-    <hyperlink ref="J22" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
-    <hyperlink ref="J24" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
-    <hyperlink ref="J25" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
-    <hyperlink ref="J26" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
-    <hyperlink ref="J27" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
-    <hyperlink ref="J28" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
-    <hyperlink ref="J29" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
-    <hyperlink ref="J35" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
-    <hyperlink ref="J13" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
-    <hyperlink ref="J12" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
-    <hyperlink ref="J11" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
-    <hyperlink ref="J10" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
-    <hyperlink ref="J9" r:id="rId31" xr:uid="{810143B7-C677-8E4F-BA34-517AC46748A9}"/>
-    <hyperlink ref="J8" r:id="rId32" xr:uid="{22B920D0-321F-7141-B889-BA4B5871E705}"/>
-    <hyperlink ref="J7" r:id="rId33" xr:uid="{F71A111C-124F-8040-98BC-ACCD7A08BC7E}"/>
-    <hyperlink ref="J6" r:id="rId34" xr:uid="{DDE07BAA-1EF3-344F-810D-62C18F5FBF71}"/>
-    <hyperlink ref="J3" r:id="rId35" xr:uid="{006D49EF-9337-3D46-88BE-B99409984A36}"/>
-    <hyperlink ref="J4" r:id="rId36" xr:uid="{D324AAC8-D23E-274A-AA18-FB9DA9CD1775}"/>
-    <hyperlink ref="J5" r:id="rId37" xr:uid="{E28917AF-B882-074B-8896-67537AA52A1C}"/>
-    <hyperlink ref="J2" r:id="rId38" xr:uid="{1B091BB1-FB84-F840-9303-106B1E6613E2}"/>
+    <hyperlink ref="G34" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
+    <hyperlink ref="G39" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
+    <hyperlink ref="G43" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
+    <hyperlink ref="G40" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
+    <hyperlink ref="G41" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
+    <hyperlink ref="G44" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
+    <hyperlink ref="F45" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
+    <hyperlink ref="F46" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
+    <hyperlink ref="G52" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
+    <hyperlink ref="G54" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
+    <hyperlink ref="J18" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
+    <hyperlink ref="J19" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
+    <hyperlink ref="J20" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
+    <hyperlink ref="J21" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
+    <hyperlink ref="J22" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
+    <hyperlink ref="J23" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
+    <hyperlink ref="J24" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
+    <hyperlink ref="J26" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
+    <hyperlink ref="J25" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
+    <hyperlink ref="J27" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
+    <hyperlink ref="J28" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
+    <hyperlink ref="J29" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
+    <hyperlink ref="J30" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
+    <hyperlink ref="J31" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
+    <hyperlink ref="J32" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
+    <hyperlink ref="J38" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
+    <hyperlink ref="J16" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
+    <hyperlink ref="J15" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
+    <hyperlink ref="J14" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
+    <hyperlink ref="J13" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
+    <hyperlink ref="J12" r:id="rId31" xr:uid="{810143B7-C677-8E4F-BA34-517AC46748A9}"/>
+    <hyperlink ref="J11" r:id="rId32" xr:uid="{22B920D0-321F-7141-B889-BA4B5871E705}"/>
+    <hyperlink ref="J10" r:id="rId33" xr:uid="{F71A111C-124F-8040-98BC-ACCD7A08BC7E}"/>
+    <hyperlink ref="J9" r:id="rId34" xr:uid="{DDE07BAA-1EF3-344F-810D-62C18F5FBF71}"/>
+    <hyperlink ref="J6" r:id="rId35" xr:uid="{006D49EF-9337-3D46-88BE-B99409984A36}"/>
+    <hyperlink ref="J7" r:id="rId36" xr:uid="{D324AAC8-D23E-274A-AA18-FB9DA9CD1775}"/>
+    <hyperlink ref="J8" r:id="rId37" xr:uid="{E28917AF-B882-074B-8896-67537AA52A1C}"/>
+    <hyperlink ref="J5" r:id="rId38" xr:uid="{1B091BB1-FB84-F840-9303-106B1E6613E2}"/>
+    <hyperlink ref="J4" r:id="rId39" xr:uid="{838550F2-B8AD-9F43-955C-10F60B85BEF5}"/>
+    <hyperlink ref="J3" r:id="rId40" xr:uid="{85DCC761-318A-5C4F-998E-BCFA79CE6A55}"/>
+    <hyperlink ref="J2" r:id="rId41" xr:uid="{CEA71834-D13C-4C4C-BDC8-5D50298E246B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1E6CC7-489F-544A-89EA-7A216A4E762B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6ACE47-6A38-FF44-AC3E-23B147BDEAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="-28300" windowWidth="38860" windowHeight="26240" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
+    <workbookView xWindow="8740" yWindow="-16240" windowWidth="38860" windowHeight="26240" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="282">
   <si>
     <t>Title</t>
   </si>
@@ -2745,7 +2745,20 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
+    <t>N055</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>機捷出土段噪音改善</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功爭取A7-A8站 #機捷出土段噪音改善</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
     &lt;!-- Flex Container --&gt;
     &lt;div class="flex flex-col md:flex-row rounded-l-xl"&gt;
       &lt;!-- Image --&gt;
@@ -2758,11 +2771,77 @@
         &lt;/h3&gt;
         &lt;p class=""max-w-sm my-4  leading-5 tracking-wide ""&gt;
 這座產權屬於郵政的公園，因為沒有先例、沒有備查機關，雅倫幾經周折後終於確認備查機關。
-結果遊具已放太久不符合檢驗標準，在雅倫與議員同事、郵政、鄭運鵬委員、特公盟、黃錦芳里長一直不斷努力之下～終於完成遊具更新、重送檢驗、確定備查✅
-孩子終於有個公園可以玩了～！    &lt;/p&gt;
+結果遊具已放太久不符合檢驗標準，在雅倫與議員同事、郵政、鄭運鵬委員、特公盟、黃錦芳里長一直不斷努力之下～終於完成遊具更新、重送檢驗、確定備查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">✅
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>孩子終於有個公園可以玩了～！    &lt;/p&gt;
       &lt;/div&gt;
     &lt;/div&gt;
   &lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
+    &lt;!-- Flex Container --&gt;
+    &lt;div class="flex flex-col md:flex-row rounded-l-xl"&gt;
+      &lt;!-- Image --&gt;
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-055D.png" alt=""
+        class=" object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;&lt;br&gt;
+      &lt;!-- Content --&gt;
+      &lt;div class="p-2 md:p-4"&gt;
+        &lt;h3 class=""&gt;
+         機捷出土段噪音改善
+        &lt;/h3&gt;
+        &lt;p class=""max-w-sm my-4  leading-5 tracking-wide ""&gt;
+雅倫成功爭取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>💪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> 【A7-A8站 #機捷出土段噪音改善】
+目前 #軌道潤滑塗佈器 已裝設完成！預計可以減少低頻共振回音，接下來兩週會來測試，今日雅倫也特地安排會勘來了解機捷公司的裝設狀況。
+未來我會繼續爭取隔音牆，並且持續監督機捷車廂購買進度！    &lt;/p&gt;
+      &lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/648878023884116/?mibextid=uJjRxr</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -3049,7 +3128,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3194,16 +3273,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3521,10 +3591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3576,76 +3646,76 @@
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12" ht="335">
-      <c r="A2" s="48" t="s">
-        <v>273</v>
+    <row r="2" spans="1:12" ht="338">
+      <c r="A2" s="14" t="s">
+        <v>277</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
+      <c r="D2" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50">
-        <v>45287</v>
-      </c>
-      <c r="J2" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-    </row>
-    <row r="3" spans="1:12" ht="319">
-      <c r="A3" s="48" t="s">
-        <v>270</v>
+        <v>278</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20">
+        <v>45294</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>281</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+    </row>
+    <row r="3" spans="1:12" ht="338">
+      <c r="A3" s="14" t="s">
+        <v>273</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>275</v>
-      </c>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50">
+        <v>272</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20">
         <v>45287</v>
       </c>
       <c r="J3" s="47" t="s">
-        <v>268</v>
-      </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-    </row>
-    <row r="4" spans="1:12" ht="332">
-      <c r="A4" s="48" t="s">
-        <v>264</v>
+        <v>274</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+    </row>
+    <row r="4" spans="1:12" ht="319">
+      <c r="A4" s="14" t="s">
+        <v>270</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>12</v>
@@ -3657,27 +3727,27 @@
         <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50">
-        <v>45268</v>
+        <v>269</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20">
+        <v>45287</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-    </row>
-    <row r="5" spans="1:12" ht="409.6">
+        <v>268</v>
+      </c>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:12" ht="332">
       <c r="A5" s="14" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>12</v>
@@ -3689,30 +3759,30 @@
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="20">
-        <v>45250</v>
+        <v>45268</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" ht="409.6">
       <c r="A6" s="14" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>257</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>13</v>
@@ -3721,46 +3791,46 @@
         <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="20">
-        <v>45229</v>
+        <v>45250</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" ht="409.6">
       <c r="A7" s="14" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>191</v>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="20">
-        <v>45230</v>
+        <v>45229</v>
       </c>
       <c r="J7" s="47" t="s">
         <v>244</v>
@@ -3770,29 +3840,29 @@
     </row>
     <row r="8" spans="1:12" ht="409.6">
       <c r="A8" s="14" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>19</v>
+      <c r="D8" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="20">
-        <v>45238</v>
+        <v>45230</v>
       </c>
       <c r="J8" s="47" t="s">
         <v>244</v>
@@ -3802,29 +3872,29 @@
     </row>
     <row r="9" spans="1:12" ht="409.6">
       <c r="A9" s="14" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="20">
-        <v>45247</v>
+        <v>45238</v>
       </c>
       <c r="J9" s="47" t="s">
         <v>244</v>
@@ -3832,12 +3902,12 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
     </row>
-    <row r="10" spans="1:12" ht="335">
+    <row r="10" spans="1:12" ht="409.6">
       <c r="A10" s="14" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>28</v>
@@ -3849,280 +3919,280 @@
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="20">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="J10" s="47" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12" ht="335">
       <c r="A11" s="14" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>191</v>
+        <v>235</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="20">
-        <v>45237</v>
-      </c>
-      <c r="J11" s="21" t="s">
-        <v>192</v>
+        <v>45246</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>239</v>
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
     </row>
-    <row r="12" spans="1:12" ht="380">
+    <row r="12" spans="1:12" ht="335">
       <c r="A12" s="14" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>14</v>
+        <v>190</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="20">
-        <v>45238</v>
+        <v>45237</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
     </row>
-    <row r="13" spans="1:12" ht="409.6">
+    <row r="13" spans="1:12" ht="380">
       <c r="A13" s="14" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="20">
         <v>45238</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:12" ht="178">
+    <row r="14" spans="1:12" ht="409.6">
       <c r="A14" s="14" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>180</v>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="20">
-        <v>45233</v>
+        <v>45238</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:12" ht="307">
+    <row r="15" spans="1:12" ht="178">
       <c r="A15" s="14" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>173</v>
+        <v>178</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="20">
         <v>45233</v>
       </c>
-      <c r="J15" s="23" t="s">
-        <v>176</v>
+      <c r="J15" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:12" ht="191">
-      <c r="A16" s="24" t="s">
+    <row r="16" spans="1:12" ht="307">
+      <c r="A16" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20">
+        <v>45233</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:12" ht="191">
+      <c r="A17" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B17" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C17" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F17" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I17" s="27">
         <v>45225</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="J17" s="28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="169">
-      <c r="A17" s="29" t="s">
+    <row r="18" spans="1:12" ht="169">
+      <c r="A18" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B18" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="31">
+      <c r="H18" s="2"/>
+      <c r="I18" s="31">
         <v>45204</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J18" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="1:12" ht="164">
-      <c r="A18" s="33" t="s">
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:12" ht="164">
+      <c r="A19" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B19" s="34" t="s">
         <v>18</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="35">
-        <v>45181</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-    </row>
-    <row r="19" spans="1:12" ht="195">
-      <c r="A19" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>12</v>
@@ -4134,32 +4204,30 @@
         <v>19</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>210</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H19" s="4"/>
       <c r="I19" s="35">
-        <v>45159</v>
+        <v>45181</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K19" s="37"/>
       <c r="L19" s="37"/>
     </row>
-    <row r="20" spans="1:12" ht="222">
+    <row r="20" spans="1:12" ht="195">
       <c r="A20" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>13</v>
@@ -4168,32 +4236,32 @@
         <v>19</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>230</v>
+        <v>24</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>229</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>210</v>
       </c>
       <c r="I20" s="35">
-        <v>45157</v>
+        <v>45159</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
     </row>
-    <row r="21" spans="1:12" ht="224">
+    <row r="21" spans="1:12" ht="222">
       <c r="A21" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>13</v>
@@ -4202,27 +4270,29 @@
         <v>19</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="H21" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="I21" s="35">
-        <v>45138</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>34</v>
+        <v>45157</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="1:12" ht="67">
+    <row r="22" spans="1:12" ht="224">
       <c r="A22" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>32</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>12</v>
@@ -4234,59 +4304,59 @@
         <v>19</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>220</v>
+        <v>33</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>231</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="35">
-        <v>45103</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>38</v>
+        <v>45138</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>34</v>
       </c>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12" ht="178">
+    <row r="23" spans="1:12" ht="67">
       <c r="A23" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="35">
-        <v>45092</v>
-      </c>
-      <c r="J23" s="38" t="s">
-        <v>42</v>
+        <v>45103</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="1:12" ht="149">
+    <row r="24" spans="1:12" ht="178">
       <c r="A24" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>12</v>
@@ -4295,33 +4365,33 @@
         <v>13</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="35">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="J24" s="38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="1:12" ht="409.6">
+    <row r="25" spans="1:12" ht="149">
       <c r="A25" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>13</v>
@@ -4330,30 +4400,30 @@
         <v>19</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="35">
-        <v>45058</v>
+        <v>45071</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
     </row>
     <row r="26" spans="1:12" ht="409.6">
       <c r="A26" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
@@ -4362,29 +4432,29 @@
         <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="35">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="1:12" ht="208">
+    <row r="27" spans="1:12" ht="409.6">
       <c r="A27" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -4394,62 +4464,62 @@
         <v>19</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="35">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="1:12" ht="409.6">
+    <row r="28" spans="1:12" ht="208">
       <c r="A28" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="35">
-        <v>45029</v>
+        <v>45051</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
     </row>
     <row r="29" spans="1:12" ht="409.6">
       <c r="A29" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>13</v>
@@ -4458,91 +4528,91 @@
         <v>14</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="35">
         <v>45029</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:12" ht="272">
+    <row r="30" spans="1:12" ht="409.6">
       <c r="A30" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="35">
-        <v>45027</v>
+        <v>45029</v>
       </c>
       <c r="J30" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12" ht="115">
+    <row r="31" spans="1:12" ht="272">
       <c r="A31" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>74</v>
+        <v>19</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>70</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="35">
-        <v>45024</v>
+        <v>45027</v>
       </c>
       <c r="J31" s="38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="1:12" ht="112">
+    <row r="32" spans="1:12" ht="115">
       <c r="A32" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>12</v>
@@ -4554,29 +4624,29 @@
         <v>14</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="35">
-        <v>45020</v>
+        <v>45024</v>
       </c>
       <c r="J32" s="38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
     </row>
-    <row r="33" spans="1:12" ht="96">
-      <c r="A33" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="16" t="s">
+    <row r="33" spans="1:12" ht="112">
+      <c r="A33" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -4586,27 +4656,27 @@
         <v>14</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="35">
-        <v>45016</v>
-      </c>
-      <c r="J33" s="37" t="s">
-        <v>84</v>
+        <v>45020</v>
+      </c>
+      <c r="J33" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="K33" s="37"/>
       <c r="L33" s="37"/>
     </row>
-    <row r="34" spans="1:12" ht="48">
-      <c r="A34" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>86</v>
+    <row r="34" spans="1:12" ht="96">
+      <c r="A34" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="C34" s="16" t="s">
         <v>12</v>
@@ -4615,33 +4685,33 @@
         <v>13</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="H34" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="4"/>
       <c r="I34" s="35">
-        <v>45002</v>
-      </c>
-      <c r="J34" s="41" t="s">
-        <v>88</v>
+        <v>45016</v>
+      </c>
+      <c r="J34" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
     </row>
-    <row r="35" spans="1:12" ht="176">
+    <row r="35" spans="1:12" ht="48">
       <c r="A35" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>13</v>
@@ -4650,30 +4720,30 @@
         <v>19</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="H35" s="3"/>
       <c r="I35" s="35">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="J35" s="41" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
     </row>
-    <row r="36" spans="1:12" ht="208">
+    <row r="36" spans="1:12" ht="176">
       <c r="A36" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
@@ -4682,29 +4752,29 @@
         <v>19</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="35">
         <v>45001</v>
       </c>
       <c r="J36" s="41" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K36" s="37"/>
       <c r="L36" s="37"/>
     </row>
-    <row r="37" spans="1:12" ht="192">
+    <row r="37" spans="1:12" ht="208">
       <c r="A37" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -4714,27 +4784,27 @@
         <v>19</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="35">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="J37" s="41" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
     </row>
-    <row r="38" spans="1:12" ht="240">
-      <c r="A38" s="42" t="s">
-        <v>105</v>
+    <row r="38" spans="1:12" ht="192">
+      <c r="A38" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>28</v>
@@ -4745,58 +4815,60 @@
       <c r="E38" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>107</v>
+      <c r="F38" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I38" s="27">
-        <v>44999</v>
-      </c>
-      <c r="J38" s="43" t="s">
-        <v>108</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H38" s="3"/>
+      <c r="I38" s="35">
+        <v>45000</v>
+      </c>
+      <c r="J38" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
     </row>
     <row r="39" spans="1:12" ht="240">
       <c r="A39" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H39" s="6"/>
+        <v>216</v>
+      </c>
       <c r="I39" s="27">
-        <v>44998</v>
-      </c>
-      <c r="J39" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="395">
+        <v>44999</v>
+      </c>
+      <c r="J39" s="43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="240">
       <c r="A40" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="B40" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>13</v>
@@ -4805,25 +4877,25 @@
         <v>14</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>197</v>
+        <v>111</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="27">
-        <v>44993</v>
+        <v>44998</v>
       </c>
       <c r="J40" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="240">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="395">
       <c r="A41" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>12</v>
@@ -4832,28 +4904,28 @@
         <v>13</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="27">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="J41" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="208">
+    <row r="42" spans="1:12" ht="240">
       <c r="A42" s="42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>12</v>
@@ -4862,58 +4934,58 @@
         <v>13</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="27">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="J42" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="112">
+    <row r="43" spans="1:12" ht="208">
       <c r="A43" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>120</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="27">
-        <v>44985</v>
+        <v>44991</v>
       </c>
       <c r="J43" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="335">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="112">
       <c r="A44" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>91</v>
@@ -4922,61 +4994,61 @@
         <v>13</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="27">
-        <v>44973</v>
+        <v>44985</v>
       </c>
       <c r="J44" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="80">
+    <row r="45" spans="1:12" ht="335">
       <c r="A45" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="27">
-        <v>44969</v>
+        <v>44973</v>
       </c>
       <c r="J45" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="128">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="80">
       <c r="A46" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>13</v>
@@ -4985,56 +5057,58 @@
         <v>19</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="27">
-        <v>44965</v>
+        <v>44969</v>
       </c>
       <c r="J46" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="160">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="128">
       <c r="A47" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="G47" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="27">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="J47" s="44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="224">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="160">
       <c r="A48" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>13</v>
@@ -5043,25 +5117,26 @@
         <v>14</v>
       </c>
       <c r="F48" s="5"/>
-      <c r="G48" s="8" t="s">
-        <v>217</v>
-      </c>
+      <c r="G48" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H48" s="6"/>
       <c r="I48" s="27">
-        <v>44958</v>
+        <v>44964</v>
       </c>
       <c r="J48" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="365">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="224">
       <c r="A49" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>13</v>
@@ -5069,141 +5144,139 @@
       <c r="E49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H49" s="6"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="I49" s="27">
-        <v>44942</v>
+        <v>44958</v>
       </c>
       <c r="J49" s="44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="224">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="365">
       <c r="A50" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F50" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="G50" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="27">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="J50" s="44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="128">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="224">
       <c r="A51" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>144</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H51" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="F51" s="5"/>
+      <c r="G51" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H51" s="6"/>
       <c r="I51" s="27">
         <v>44937</v>
       </c>
       <c r="J51" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="128">
+      <c r="A52" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="27">
+        <v>44937</v>
+      </c>
+      <c r="J52" s="44" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="409.6">
-      <c r="A52" s="42" t="s">
+    <row r="53" spans="1:10" ht="409.6">
+      <c r="A53" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B53" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C53" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F52" s="26"/>
-      <c r="G52" s="6" t="s">
+      <c r="F53" s="26"/>
+      <c r="G53" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="27">
+      <c r="H53" s="6"/>
+      <c r="I53" s="27">
         <v>44915</v>
       </c>
-      <c r="J52" s="44" t="s">
+      <c r="J53" s="44" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="144">
-      <c r="A53" s="42" t="s">
+    <row r="54" spans="1:10" ht="128">
+      <c r="A54" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B54" s="34" t="s">
         <v>158</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F53" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I53" s="27">
-        <v>44910</v>
-      </c>
-      <c r="J53" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="176">
-      <c r="A54" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>161</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>12</v>
@@ -5212,92 +5285,122 @@
         <v>13</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="26"/>
+        <v>145</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>159</v>
+      </c>
       <c r="G54" s="8" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="I54" s="27">
-        <v>44903</v>
+        <v>44910</v>
       </c>
       <c r="J54" s="44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="192">
-      <c r="A55" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>164</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="176">
+      <c r="A55" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="26"/>
+      <c r="G55" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I55" s="27">
+        <v>44903</v>
+      </c>
+      <c r="J55" s="44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="192">
+      <c r="A56" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="26" t="s">
+      <c r="F56" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G56" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="I55" s="27">
+      <c r="I56" s="27">
         <v>44576</v>
       </c>
-      <c r="J55" s="44" t="s">
+      <c r="J56" s="44" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G34" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
-    <hyperlink ref="G39" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
-    <hyperlink ref="G43" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
-    <hyperlink ref="G40" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
-    <hyperlink ref="G41" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
-    <hyperlink ref="G44" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
-    <hyperlink ref="F45" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
-    <hyperlink ref="F46" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
-    <hyperlink ref="G52" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
-    <hyperlink ref="G54" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
-    <hyperlink ref="J18" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
-    <hyperlink ref="J19" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
-    <hyperlink ref="J20" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
-    <hyperlink ref="J21" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
-    <hyperlink ref="J22" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
-    <hyperlink ref="J23" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
-    <hyperlink ref="J24" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
-    <hyperlink ref="J26" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
-    <hyperlink ref="J25" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
-    <hyperlink ref="J27" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
-    <hyperlink ref="J28" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
-    <hyperlink ref="J29" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
-    <hyperlink ref="J30" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
-    <hyperlink ref="J31" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
-    <hyperlink ref="J32" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
-    <hyperlink ref="J38" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
-    <hyperlink ref="J16" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
-    <hyperlink ref="J15" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
-    <hyperlink ref="J14" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
-    <hyperlink ref="J13" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
-    <hyperlink ref="J12" r:id="rId31" xr:uid="{810143B7-C677-8E4F-BA34-517AC46748A9}"/>
-    <hyperlink ref="J11" r:id="rId32" xr:uid="{22B920D0-321F-7141-B889-BA4B5871E705}"/>
-    <hyperlink ref="J10" r:id="rId33" xr:uid="{F71A111C-124F-8040-98BC-ACCD7A08BC7E}"/>
-    <hyperlink ref="J9" r:id="rId34" xr:uid="{DDE07BAA-1EF3-344F-810D-62C18F5FBF71}"/>
-    <hyperlink ref="J6" r:id="rId35" xr:uid="{006D49EF-9337-3D46-88BE-B99409984A36}"/>
-    <hyperlink ref="J7" r:id="rId36" xr:uid="{D324AAC8-D23E-274A-AA18-FB9DA9CD1775}"/>
-    <hyperlink ref="J8" r:id="rId37" xr:uid="{E28917AF-B882-074B-8896-67537AA52A1C}"/>
-    <hyperlink ref="J5" r:id="rId38" xr:uid="{1B091BB1-FB84-F840-9303-106B1E6613E2}"/>
-    <hyperlink ref="J4" r:id="rId39" xr:uid="{838550F2-B8AD-9F43-955C-10F60B85BEF5}"/>
-    <hyperlink ref="J3" r:id="rId40" xr:uid="{85DCC761-318A-5C4F-998E-BCFA79CE6A55}"/>
-    <hyperlink ref="J2" r:id="rId41" xr:uid="{CEA71834-D13C-4C4C-BDC8-5D50298E246B}"/>
+    <hyperlink ref="G35" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
+    <hyperlink ref="G40" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
+    <hyperlink ref="G44" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
+    <hyperlink ref="G41" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
+    <hyperlink ref="G42" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
+    <hyperlink ref="G45" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
+    <hyperlink ref="F46" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
+    <hyperlink ref="F47" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
+    <hyperlink ref="G53" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
+    <hyperlink ref="G55" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
+    <hyperlink ref="J19" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
+    <hyperlink ref="J20" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
+    <hyperlink ref="J21" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
+    <hyperlink ref="J22" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
+    <hyperlink ref="J23" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
+    <hyperlink ref="J24" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
+    <hyperlink ref="J25" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
+    <hyperlink ref="J27" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
+    <hyperlink ref="J26" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
+    <hyperlink ref="J28" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
+    <hyperlink ref="J29" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
+    <hyperlink ref="J30" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
+    <hyperlink ref="J31" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
+    <hyperlink ref="J32" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
+    <hyperlink ref="J33" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
+    <hyperlink ref="J39" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
+    <hyperlink ref="J17" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
+    <hyperlink ref="J16" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
+    <hyperlink ref="J15" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
+    <hyperlink ref="J14" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
+    <hyperlink ref="J13" r:id="rId31" xr:uid="{810143B7-C677-8E4F-BA34-517AC46748A9}"/>
+    <hyperlink ref="J12" r:id="rId32" xr:uid="{22B920D0-321F-7141-B889-BA4B5871E705}"/>
+    <hyperlink ref="J11" r:id="rId33" xr:uid="{F71A111C-124F-8040-98BC-ACCD7A08BC7E}"/>
+    <hyperlink ref="J10" r:id="rId34" xr:uid="{DDE07BAA-1EF3-344F-810D-62C18F5FBF71}"/>
+    <hyperlink ref="J7" r:id="rId35" xr:uid="{006D49EF-9337-3D46-88BE-B99409984A36}"/>
+    <hyperlink ref="J8" r:id="rId36" xr:uid="{D324AAC8-D23E-274A-AA18-FB9DA9CD1775}"/>
+    <hyperlink ref="J9" r:id="rId37" xr:uid="{E28917AF-B882-074B-8896-67537AA52A1C}"/>
+    <hyperlink ref="J6" r:id="rId38" xr:uid="{1B091BB1-FB84-F840-9303-106B1E6613E2}"/>
+    <hyperlink ref="J5" r:id="rId39" xr:uid="{838550F2-B8AD-9F43-955C-10F60B85BEF5}"/>
+    <hyperlink ref="J4" r:id="rId40" xr:uid="{85DCC761-318A-5C4F-998E-BCFA79CE6A55}"/>
+    <hyperlink ref="J3" r:id="rId41" xr:uid="{CEA71834-D13C-4C4C-BDC8-5D50298E246B}"/>
+    <hyperlink ref="J2" r:id="rId42" xr:uid="{E3B07663-33C4-6742-811D-4ACD1D19B294}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6ACE47-6A38-FF44-AC3E-23B147BDEAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9898EF19-8936-8B45-92D3-C4645A411845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8740" yWindow="-16240" windowWidth="38860" windowHeight="26240" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
+    <workbookView xWindow="8740" yWindow="-26240" windowWidth="38860" windowHeight="26240" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2799,12 +2799,16 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/648878023884116/?mibextid=uJjRxr</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
     &lt;!-- Flex Container --&gt;
     &lt;div class="flex flex-col md:flex-row rounded-l-xl"&gt;
       &lt;!-- Image --&gt;
-      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-055D.png" alt=""
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-055I.png" alt=""
         class=" object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;&lt;br&gt;
       &lt;!-- Content --&gt;
       &lt;div class="p-2 md:p-4"&gt;
@@ -2838,10 +2842,6 @@
     &lt;/div&gt;
   &lt;/div&gt;</t>
     </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/648878023884116/?mibextid=uJjRxr</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -3593,8 +3593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3666,14 +3666,14 @@
         <v>278</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="20">
         <v>45294</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9898EF19-8936-8B45-92D3-C4645A411845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09B1CA2-6497-874C-975C-0E8F3FD7715E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8740" yWindow="-26240" windowWidth="38860" windowHeight="26240" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
+    <workbookView xWindow="9460" yWindow="-26240" windowWidth="38860" windowHeight="26240" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="287">
   <si>
     <t>Title</t>
   </si>
@@ -2803,8 +2803,18 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
+    <t>N056</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
     &lt;!-- Flex Container --&gt;
     &lt;div class="flex flex-col md:flex-row rounded-l-xl"&gt;
       &lt;!-- Image --&gt;
@@ -2813,7 +2823,17 @@
       &lt;!-- Content --&gt;
       &lt;div class="p-2 md:p-4"&gt;
         &lt;h3 class=""&gt;
-         機捷出土段噪音改善
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>機捷出土段噪音改善
         &lt;/h3&gt;
         &lt;p class=""max-w-sm my-4  leading-5 tracking-wide ""&gt;
 雅倫成功爭取</t>
@@ -2842,6 +2862,56 @@
     &lt;/div&gt;
   &lt;/div&gt;</t>
     </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求機捷規劃有秩序的排隊線</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>機捷A7 A8站規劃排隊線</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;div class="bg-zinc-100 p-2 mx-2 rounded-2xl"&gt;
+    &lt;!-- Flex Container --&gt;
+    &lt;div class="flex flex-col md:flex-row rounded-l-xl"&gt;
+      &lt;!-- Image --&gt;
+      &lt;img src="https://kgptltaqnkidtcqkathb.supabase.co/storage/v1/object/public/a7-images/service/SER-056.jpeg" alt=""
+        class=" object-fit rounded-xl w-full md:w-1/2 md:rounded-l-xl md:rounded-r-none transform hover:scale-105 hover:rounded-xl duration-200" /&gt;&lt;br&gt;
+      &lt;!-- Content --&gt;
+      &lt;div class="p-2 md:p-4"&gt;
+        &lt;h3 class=""&gt;
+         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>要求機捷規劃有秩序的排隊線
+        &lt;/h3&gt;
+        &lt;p class=""max-w-sm my-4  leading-5 tracking-wide ""&gt;
+機捷通勤人數日益增加，但有許多站沒有畫設排隊線，通勤族無所依循，常發生亂排插隊現象…
+雅倫逐一會勘，並從本週開始進場畫設，預計1月底前完成A8至A1站共8個月台的排隊線   &lt;/p&gt;
+      &lt;/div&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/a7xinlinkou/permalink/654847033287215/?mibextid=uJjRxr</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -3591,10 +3661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DDADCF5-2F55-F44F-8E76-C36031DD72C5}">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
@@ -3646,108 +3716,108 @@
       <c r="K1" s="12"/>
       <c r="L1" s="12"/>
     </row>
-    <row r="2" spans="1:12" ht="338">
+    <row r="2" spans="1:12" ht="332">
       <c r="A2" s="14" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>191</v>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H2" s="19"/>
       <c r="I2" s="20">
-        <v>45294</v>
+        <v>45306</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" ht="338">
+    <row r="3" spans="1:12" ht="365">
       <c r="A3" s="14" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
+      <c r="D3" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="20">
-        <v>45287</v>
-      </c>
-      <c r="J3" s="47" t="s">
-        <v>274</v>
+        <v>45294</v>
+      </c>
+      <c r="J3" s="48" t="s">
+        <v>280</v>
       </c>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
     </row>
-    <row r="4" spans="1:12" ht="319">
+    <row r="4" spans="1:12" ht="338">
       <c r="A4" s="14" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="20">
         <v>45287</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="332">
+    <row r="5" spans="1:12" ht="319">
       <c r="A5" s="14" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>12</v>
@@ -3759,27 +3829,27 @@
         <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="20">
-        <v>45268</v>
+        <v>45287</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" spans="1:12" ht="409.6">
+    <row r="6" spans="1:12" ht="332">
       <c r="A6" s="14" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>12</v>
@@ -3791,30 +3861,30 @@
         <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="20">
-        <v>45250</v>
+        <v>45268</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" ht="409.6">
       <c r="A7" s="14" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>257</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>13</v>
@@ -3823,46 +3893,46 @@
         <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="20">
-        <v>45229</v>
+        <v>45250</v>
       </c>
       <c r="J7" s="47" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" ht="409.6">
       <c r="A8" s="14" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>191</v>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="20">
-        <v>45230</v>
+        <v>45229</v>
       </c>
       <c r="J8" s="47" t="s">
         <v>244</v>
@@ -3872,29 +3942,29 @@
     </row>
     <row r="9" spans="1:12" ht="409.6">
       <c r="A9" s="14" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
+      <c r="D9" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="20">
-        <v>45238</v>
+        <v>45230</v>
       </c>
       <c r="J9" s="47" t="s">
         <v>244</v>
@@ -3904,29 +3974,29 @@
     </row>
     <row r="10" spans="1:12" ht="409.6">
       <c r="A10" s="14" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="20">
-        <v>45247</v>
+        <v>45238</v>
       </c>
       <c r="J10" s="47" t="s">
         <v>244</v>
@@ -3934,12 +4004,12 @@
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:12" ht="335">
+    <row r="11" spans="1:12" ht="409.6">
       <c r="A11" s="14" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>28</v>
@@ -3951,280 +4021,280 @@
         <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="20">
-        <v>45246</v>
+        <v>45247</v>
       </c>
       <c r="J11" s="47" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12" ht="335">
       <c r="A12" s="14" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>191</v>
+        <v>235</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="20">
-        <v>45237</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>192</v>
+        <v>45246</v>
+      </c>
+      <c r="J12" s="47" t="s">
+        <v>239</v>
       </c>
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
     </row>
-    <row r="13" spans="1:12" ht="380">
+    <row r="13" spans="1:12" ht="335">
       <c r="A13" s="14" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>14</v>
+        <v>190</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>191</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="20">
-        <v>45238</v>
+        <v>45237</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="1:12" ht="409.6">
+    <row r="14" spans="1:12" ht="380">
       <c r="A14" s="14" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="20">
         <v>45238</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:12" ht="178">
+    <row r="15" spans="1:12" ht="409.6">
       <c r="A15" s="14" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="18" t="s">
-        <v>180</v>
+      <c r="E15" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="20">
-        <v>45233</v>
+        <v>45238</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" spans="1:12" ht="307">
+    <row r="16" spans="1:12" ht="178">
       <c r="A16" s="14" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>173</v>
+        <v>178</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="20">
         <v>45233</v>
       </c>
-      <c r="J16" s="23" t="s">
-        <v>176</v>
+      <c r="J16" s="21" t="s">
+        <v>181</v>
       </c>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="1:12" ht="191">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:12" ht="307">
+      <c r="A17" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20">
+        <v>45233</v>
+      </c>
+      <c r="J17" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+    </row>
+    <row r="18" spans="1:12" ht="191">
+      <c r="A18" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B18" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F18" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I18" s="27">
         <v>45225</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J18" s="28" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="169">
-      <c r="A18" s="29" t="s">
+    <row r="19" spans="1:12" ht="169">
+      <c r="A19" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B19" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D19" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="31">
+      <c r="H19" s="2"/>
+      <c r="I19" s="31">
         <v>45204</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J19" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-    </row>
-    <row r="19" spans="1:12" ht="164">
-      <c r="A19" s="33" t="s">
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" spans="1:12" ht="164">
+      <c r="A20" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B20" s="34" t="s">
         <v>18</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="35">
-        <v>45181</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-    </row>
-    <row r="20" spans="1:12" ht="195">
-      <c r="A20" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>12</v>
@@ -4236,32 +4306,30 @@
         <v>19</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>229</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>210</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H20" s="4"/>
       <c r="I20" s="35">
-        <v>45159</v>
+        <v>45181</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
     </row>
-    <row r="21" spans="1:12" ht="222">
+    <row r="21" spans="1:12" ht="195">
       <c r="A21" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>13</v>
@@ -4270,32 +4338,32 @@
         <v>19</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>230</v>
+        <v>24</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>229</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>210</v>
       </c>
       <c r="I21" s="35">
-        <v>45157</v>
+        <v>45159</v>
       </c>
       <c r="J21" s="36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="1:12" ht="224">
+    <row r="22" spans="1:12" ht="222">
       <c r="A22" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>13</v>
@@ -4304,27 +4372,29 @@
         <v>19</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="H22" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="I22" s="35">
-        <v>45138</v>
-      </c>
-      <c r="J22" s="38" t="s">
-        <v>34</v>
+        <v>45157</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>30</v>
       </c>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12" ht="67">
+    <row r="23" spans="1:12" ht="224">
       <c r="A23" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>32</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>12</v>
@@ -4336,59 +4406,59 @@
         <v>19</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>220</v>
+        <v>33</v>
+      </c>
+      <c r="G23" s="46" t="s">
+        <v>231</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="35">
-        <v>45103</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>38</v>
+        <v>45138</v>
+      </c>
+      <c r="J23" s="38" t="s">
+        <v>34</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="1:12" ht="178">
+    <row r="24" spans="1:12" ht="67">
       <c r="A24" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="35">
-        <v>45092</v>
-      </c>
-      <c r="J24" s="38" t="s">
-        <v>42</v>
+        <v>45103</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="1:12" ht="149">
+    <row r="25" spans="1:12" ht="178">
       <c r="A25" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>40</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>12</v>
@@ -4397,33 +4467,33 @@
         <v>13</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H25" s="4"/>
       <c r="I25" s="35">
-        <v>45071</v>
+        <v>45092</v>
       </c>
       <c r="J25" s="38" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="1:12" ht="409.6">
+    <row r="26" spans="1:12" ht="149">
       <c r="A26" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>44</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>13</v>
@@ -4432,30 +4502,30 @@
         <v>19</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="35">
-        <v>45058</v>
+        <v>45071</v>
       </c>
       <c r="J26" s="38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
     </row>
     <row r="27" spans="1:12" ht="409.6">
       <c r="A27" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>12</v>
+        <v>47</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>13</v>
@@ -4464,29 +4534,29 @@
         <v>19</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="35">
-        <v>45057</v>
+        <v>45058</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="1:12" ht="208">
+    <row r="28" spans="1:12" ht="409.6">
       <c r="A28" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -4496,62 +4566,62 @@
         <v>19</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="35">
-        <v>45051</v>
+        <v>45057</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="1:12" ht="409.6">
+    <row r="29" spans="1:12" ht="208">
       <c r="A29" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="35">
-        <v>45029</v>
+        <v>45051</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
     <row r="30" spans="1:12" ht="409.6">
       <c r="A30" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>60</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>13</v>
@@ -4560,91 +4630,91 @@
         <v>14</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="35">
         <v>45029</v>
       </c>
       <c r="J30" s="38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12" ht="272">
+    <row r="31" spans="1:12" ht="409.6">
       <c r="A31" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>70</v>
+        <v>14</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="35">
-        <v>45027</v>
+        <v>45029</v>
       </c>
       <c r="J31" s="38" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="1:12" ht="115">
+    <row r="32" spans="1:12" ht="272">
       <c r="A32" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>12</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>74</v>
+        <v>19</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>70</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="35">
-        <v>45024</v>
+        <v>45027</v>
       </c>
       <c r="J32" s="38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
     </row>
-    <row r="33" spans="1:12" ht="112">
+    <row r="33" spans="1:12" ht="115">
       <c r="A33" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>12</v>
@@ -4656,29 +4726,29 @@
         <v>14</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="35">
-        <v>45020</v>
+        <v>45024</v>
       </c>
       <c r="J33" s="38" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K33" s="37"/>
       <c r="L33" s="37"/>
     </row>
-    <row r="34" spans="1:12" ht="96">
-      <c r="A34" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="16" t="s">
+    <row r="34" spans="1:12" ht="112">
+      <c r="A34" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -4688,27 +4758,27 @@
         <v>14</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="35">
-        <v>45016</v>
-      </c>
-      <c r="J34" s="37" t="s">
-        <v>84</v>
+        <v>45020</v>
+      </c>
+      <c r="J34" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="K34" s="37"/>
       <c r="L34" s="37"/>
     </row>
-    <row r="35" spans="1:12" ht="48">
-      <c r="A35" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>86</v>
+    <row r="35" spans="1:12" ht="96">
+      <c r="A35" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>12</v>
@@ -4717,33 +4787,33 @@
         <v>13</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="H35" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" s="4"/>
       <c r="I35" s="35">
-        <v>45002</v>
-      </c>
-      <c r="J35" s="41" t="s">
-        <v>88</v>
+        <v>45016</v>
+      </c>
+      <c r="J35" s="37" t="s">
+        <v>84</v>
       </c>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
     </row>
-    <row r="36" spans="1:12" ht="176">
+    <row r="36" spans="1:12" ht="48">
       <c r="A36" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>13</v>
@@ -4752,30 +4822,30 @@
         <v>19</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="35">
-        <v>45001</v>
+        <v>45002</v>
       </c>
       <c r="J36" s="41" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K36" s="37"/>
       <c r="L36" s="37"/>
     </row>
-    <row r="37" spans="1:12" ht="208">
+    <row r="37" spans="1:12" ht="176">
       <c r="A37" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>13</v>
@@ -4784,29 +4854,29 @@
         <v>19</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="35">
         <v>45001</v>
       </c>
       <c r="J37" s="41" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
     </row>
-    <row r="38" spans="1:12" ht="192">
+    <row r="38" spans="1:12" ht="208">
       <c r="A38" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -4816,27 +4886,27 @@
         <v>19</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H38" s="3"/>
       <c r="I38" s="35">
-        <v>45000</v>
+        <v>45001</v>
       </c>
       <c r="J38" s="41" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K38" s="37"/>
       <c r="L38" s="37"/>
     </row>
-    <row r="39" spans="1:12" ht="240">
-      <c r="A39" s="42" t="s">
-        <v>105</v>
+    <row r="39" spans="1:12" ht="192">
+      <c r="A39" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>28</v>
@@ -4847,58 +4917,60 @@
       <c r="E39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>107</v>
+      <c r="F39" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="I39" s="27">
-        <v>44999</v>
-      </c>
-      <c r="J39" s="43" t="s">
-        <v>108</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="35">
+        <v>45000</v>
+      </c>
+      <c r="J39" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
     </row>
     <row r="40" spans="1:12" ht="240">
       <c r="A40" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="H40" s="6"/>
+        <v>216</v>
+      </c>
       <c r="I40" s="27">
-        <v>44998</v>
-      </c>
-      <c r="J40" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="395">
+        <v>44999</v>
+      </c>
+      <c r="J40" s="43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="240">
       <c r="A41" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>13</v>
@@ -4907,25 +4979,25 @@
         <v>14</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>197</v>
+        <v>111</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="27">
-        <v>44993</v>
+        <v>44998</v>
       </c>
       <c r="J41" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="240">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="395">
       <c r="A42" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>12</v>
@@ -4934,28 +5006,28 @@
         <v>13</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="27">
-        <v>44992</v>
+        <v>44993</v>
       </c>
       <c r="J42" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="208">
+    <row r="43" spans="1:12" ht="240">
       <c r="A43" s="42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>12</v>
@@ -4964,58 +5036,58 @@
         <v>13</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="27">
-        <v>44991</v>
+        <v>44992</v>
       </c>
       <c r="J43" s="44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="112">
+    <row r="44" spans="1:12" ht="208">
       <c r="A44" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" s="34" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>120</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>199</v>
+        <v>122</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="27">
-        <v>44985</v>
+        <v>44991</v>
       </c>
       <c r="J44" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="335">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="112">
       <c r="A45" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>124</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>91</v>
@@ -5024,61 +5096,61 @@
         <v>13</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="27">
-        <v>44973</v>
+        <v>44985</v>
       </c>
       <c r="J45" s="44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="80">
+    <row r="46" spans="1:12" ht="335">
       <c r="A46" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>130</v>
+        <v>126</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="27">
-        <v>44969</v>
+        <v>44973</v>
       </c>
       <c r="J46" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="128">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="80">
       <c r="A47" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>133</v>
+        <v>129</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>13</v>
@@ -5087,56 +5159,58 @@
         <v>19</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="27">
-        <v>44965</v>
+        <v>44969</v>
       </c>
       <c r="J47" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="160">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="128">
       <c r="A48" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>133</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>134</v>
+      </c>
       <c r="G48" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="27">
-        <v>44964</v>
+        <v>44965</v>
       </c>
       <c r="J48" s="44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="224">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="160">
       <c r="A49" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>136</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>13</v>
@@ -5145,25 +5219,26 @@
         <v>14</v>
       </c>
       <c r="F49" s="5"/>
-      <c r="G49" s="8" t="s">
-        <v>217</v>
-      </c>
+      <c r="G49" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H49" s="6"/>
       <c r="I49" s="27">
-        <v>44958</v>
+        <v>44964</v>
       </c>
       <c r="J49" s="44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="365">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="224">
       <c r="A50" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="B50" s="30" t="s">
+        <v>138</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>13</v>
@@ -5171,141 +5246,139 @@
       <c r="E50" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H50" s="6"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="8" t="s">
+        <v>217</v>
+      </c>
       <c r="I50" s="27">
-        <v>44942</v>
+        <v>44958</v>
       </c>
       <c r="J50" s="44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="224">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="365">
       <c r="A51" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>144</v>
+        <v>139</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F51" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="G51" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="27">
-        <v>44937</v>
+        <v>44942</v>
       </c>
       <c r="J51" s="44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="128">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="224">
       <c r="A52" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>147</v>
+        <v>143</v>
+      </c>
+      <c r="B52" s="30" t="s">
+        <v>144</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="H52" s="7"/>
+        <v>145</v>
+      </c>
+      <c r="F52" s="5"/>
+      <c r="G52" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H52" s="6"/>
       <c r="I52" s="27">
         <v>44937</v>
       </c>
       <c r="J52" s="44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="128">
+      <c r="A53" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="27">
+        <v>44937</v>
+      </c>
+      <c r="J53" s="44" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="409.6">
-      <c r="A53" s="42" t="s">
+    <row r="54" spans="1:10" ht="409.6">
+      <c r="A54" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B54" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C54" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F53" s="26"/>
-      <c r="G53" s="6" t="s">
+      <c r="F54" s="26"/>
+      <c r="G54" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="27">
+      <c r="H54" s="6"/>
+      <c r="I54" s="27">
         <v>44915</v>
       </c>
-      <c r="J53" s="44" t="s">
+      <c r="J54" s="44" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="128">
-      <c r="A54" s="42" t="s">
+    <row r="55" spans="1:10" ht="144">
+      <c r="A55" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B55" s="34" t="s">
         <v>158</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="I54" s="27">
-        <v>44910</v>
-      </c>
-      <c r="J54" s="44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="176">
-      <c r="A55" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>161</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>12</v>
@@ -5314,93 +5387,123 @@
         <v>13</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F55" s="26"/>
+        <v>145</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>159</v>
+      </c>
       <c r="G55" s="8" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="I55" s="27">
-        <v>44903</v>
+        <v>44910</v>
       </c>
       <c r="J55" s="44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="192">
-      <c r="A56" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>164</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="176">
+      <c r="A56" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="30" t="s">
+        <v>161</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="26"/>
+      <c r="G56" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I56" s="27">
+        <v>44903</v>
+      </c>
+      <c r="J56" s="44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="192">
+      <c r="A57" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="26" t="s">
+      <c r="F57" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G57" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="I56" s="27">
+      <c r="I57" s="27">
         <v>44576</v>
       </c>
-      <c r="J56" s="44" t="s">
+      <c r="J57" s="44" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G35" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
-    <hyperlink ref="G40" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
-    <hyperlink ref="G44" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
-    <hyperlink ref="G41" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
-    <hyperlink ref="G42" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
-    <hyperlink ref="G45" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
-    <hyperlink ref="F46" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
-    <hyperlink ref="F47" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
-    <hyperlink ref="G53" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
-    <hyperlink ref="G55" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
-    <hyperlink ref="J19" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
-    <hyperlink ref="J20" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
-    <hyperlink ref="J21" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
-    <hyperlink ref="J22" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
-    <hyperlink ref="J23" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
-    <hyperlink ref="J24" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
-    <hyperlink ref="J25" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
-    <hyperlink ref="J27" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
-    <hyperlink ref="J26" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
-    <hyperlink ref="J28" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
-    <hyperlink ref="J29" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
-    <hyperlink ref="J30" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
-    <hyperlink ref="J31" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
-    <hyperlink ref="J32" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
-    <hyperlink ref="J33" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
-    <hyperlink ref="J39" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
-    <hyperlink ref="J17" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
-    <hyperlink ref="J16" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
-    <hyperlink ref="J15" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
-    <hyperlink ref="J14" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
-    <hyperlink ref="J13" r:id="rId31" xr:uid="{810143B7-C677-8E4F-BA34-517AC46748A9}"/>
-    <hyperlink ref="J12" r:id="rId32" xr:uid="{22B920D0-321F-7141-B889-BA4B5871E705}"/>
-    <hyperlink ref="J11" r:id="rId33" xr:uid="{F71A111C-124F-8040-98BC-ACCD7A08BC7E}"/>
-    <hyperlink ref="J10" r:id="rId34" xr:uid="{DDE07BAA-1EF3-344F-810D-62C18F5FBF71}"/>
-    <hyperlink ref="J7" r:id="rId35" xr:uid="{006D49EF-9337-3D46-88BE-B99409984A36}"/>
-    <hyperlink ref="J8" r:id="rId36" xr:uid="{D324AAC8-D23E-274A-AA18-FB9DA9CD1775}"/>
-    <hyperlink ref="J9" r:id="rId37" xr:uid="{E28917AF-B882-074B-8896-67537AA52A1C}"/>
-    <hyperlink ref="J6" r:id="rId38" xr:uid="{1B091BB1-FB84-F840-9303-106B1E6613E2}"/>
-    <hyperlink ref="J5" r:id="rId39" xr:uid="{838550F2-B8AD-9F43-955C-10F60B85BEF5}"/>
-    <hyperlink ref="J4" r:id="rId40" xr:uid="{85DCC761-318A-5C4F-998E-BCFA79CE6A55}"/>
-    <hyperlink ref="J3" r:id="rId41" xr:uid="{CEA71834-D13C-4C4C-BDC8-5D50298E246B}"/>
-    <hyperlink ref="J2" r:id="rId42" xr:uid="{E3B07663-33C4-6742-811D-4ACD1D19B294}"/>
+    <hyperlink ref="G36" r:id="rId1" display="#機場捷運增加班次" xr:uid="{D2EF3F6A-438F-0846-B582-ED1E47BA0436}"/>
+    <hyperlink ref="G41" r:id="rId2" display="#桃園市市長" xr:uid="{6C6205E2-AB67-264B-8484-847FF8F53E54}"/>
+    <hyperlink ref="G45" r:id="rId3" display="#韻璇收到民眾陳情文桃路轉文南路交通回堵嚴重" xr:uid="{728A44E7-F14A-1F45-B1EA-6F04CFEC8419}"/>
+    <hyperlink ref="G42" r:id="rId4" display="#垃圾問題" xr:uid="{472D9AE8-25C3-BE48-97D0-FF94E1A103B8}"/>
+    <hyperlink ref="G43" r:id="rId5" display="#預算來源不明" xr:uid="{14CE4F32-3C8C-EB4C-A1C8-075CD543CF30}"/>
+    <hyperlink ref="G46" r:id="rId6" display="https://forms.gle/oN9hpTZYZ4nwWBGu5" xr:uid="{9E3693C4-17BE-7949-9715-F027886F8544}"/>
+    <hyperlink ref="F47" r:id="rId7" display="陳雅倫" xr:uid="{F06DF40F-D0F8-8F40-AF79-2388D95DE3EB}"/>
+    <hyperlink ref="F48" r:id="rId8" display="孫韻璇" xr:uid="{7C48291A-9208-AC4A-9406-91E482209826}"/>
+    <hyperlink ref="G54" r:id="rId9" display="https://www.facebook.com/groups/389119991183274/posts/2083583925070197/" xr:uid="{3A9BEA40-E483-6143-80EA-8898002384F4}"/>
+    <hyperlink ref="G56" r:id="rId10" display="https://udn.com/news/amp/story/7323/6822573?fbclid=IwAR1L4sNzLUM_3kmu7JmKoQ-fCWdQavSJpGqx60APSVaG3BvpGfJRD4077uM" xr:uid="{70259F81-2A7A-C94E-8A41-2A9042D5D442}"/>
+    <hyperlink ref="J20" r:id="rId11" xr:uid="{62F56EFE-8B8E-E247-A0B4-5479BBDB5C39}"/>
+    <hyperlink ref="J21" r:id="rId12" xr:uid="{ED269510-030C-744C-8BE9-5834EBB172EB}"/>
+    <hyperlink ref="J22" r:id="rId13" xr:uid="{90698887-1E2E-214C-B19D-1AFDE39BCB54}"/>
+    <hyperlink ref="J23" r:id="rId14" xr:uid="{D03FF979-0FC5-594C-9A51-1B7FF7069567}"/>
+    <hyperlink ref="J24" r:id="rId15" xr:uid="{BF0167D0-D82A-4C44-8D51-B1535E5284FE}"/>
+    <hyperlink ref="J25" r:id="rId16" xr:uid="{1798B22A-6059-BB4D-BCE5-7226CE299761}"/>
+    <hyperlink ref="J26" r:id="rId17" xr:uid="{A69BEE6A-11B6-8C44-A099-412C973C6F99}"/>
+    <hyperlink ref="J28" r:id="rId18" xr:uid="{7C94DB60-D5AD-0E48-9B46-34E82F33EEE6}"/>
+    <hyperlink ref="J27" r:id="rId19" xr:uid="{C00F1785-602C-C84F-BC92-85F11ACEA379}"/>
+    <hyperlink ref="J29" r:id="rId20" xr:uid="{1CBDB0B3-8294-8F40-B1D0-194CCCCDA2FA}"/>
+    <hyperlink ref="J30" r:id="rId21" xr:uid="{0582B2FE-ECFA-F54B-AA90-4C2909E24A2F}"/>
+    <hyperlink ref="J31" r:id="rId22" xr:uid="{647D100F-EBFB-4E42-A813-481AFFC1722C}"/>
+    <hyperlink ref="J32" r:id="rId23" xr:uid="{573DEF45-F51C-0A4F-827A-18D0E6B2D382}"/>
+    <hyperlink ref="J33" r:id="rId24" xr:uid="{1640744C-D1B2-ED4E-8944-DFC75E8641B8}"/>
+    <hyperlink ref="J34" r:id="rId25" xr:uid="{1E9655BF-C97A-8646-A01B-A21322B4BECB}"/>
+    <hyperlink ref="J40" r:id="rId26" xr:uid="{1FD4FE18-C444-014C-AB7F-A7C26EC182C0}"/>
+    <hyperlink ref="J18" r:id="rId27" xr:uid="{CF44C5FB-DD7A-6742-8FC0-8C158FFD9D62}"/>
+    <hyperlink ref="J17" r:id="rId28" xr:uid="{B74A21F2-D9F8-7043-B7DF-51919ED16750}"/>
+    <hyperlink ref="J16" r:id="rId29" xr:uid="{5A632564-E20A-3847-91C8-5A6E0890FBE7}"/>
+    <hyperlink ref="J15" r:id="rId30" xr:uid="{707AB992-9C7F-8244-98E6-AF4295461918}"/>
+    <hyperlink ref="J14" r:id="rId31" xr:uid="{810143B7-C677-8E4F-BA34-517AC46748A9}"/>
+    <hyperlink ref="J13" r:id="rId32" xr:uid="{22B920D0-321F-7141-B889-BA4B5871E705}"/>
+    <hyperlink ref="J12" r:id="rId33" xr:uid="{F71A111C-124F-8040-98BC-ACCD7A08BC7E}"/>
+    <hyperlink ref="J11" r:id="rId34" xr:uid="{DDE07BAA-1EF3-344F-810D-62C18F5FBF71}"/>
+    <hyperlink ref="J8" r:id="rId35" xr:uid="{006D49EF-9337-3D46-88BE-B99409984A36}"/>
+    <hyperlink ref="J9" r:id="rId36" xr:uid="{D324AAC8-D23E-274A-AA18-FB9DA9CD1775}"/>
+    <hyperlink ref="J10" r:id="rId37" xr:uid="{E28917AF-B882-074B-8896-67537AA52A1C}"/>
+    <hyperlink ref="J7" r:id="rId38" xr:uid="{1B091BB1-FB84-F840-9303-106B1E6613E2}"/>
+    <hyperlink ref="J6" r:id="rId39" xr:uid="{838550F2-B8AD-9F43-955C-10F60B85BEF5}"/>
+    <hyperlink ref="J5" r:id="rId40" xr:uid="{85DCC761-318A-5C4F-998E-BCFA79CE6A55}"/>
+    <hyperlink ref="J4" r:id="rId41" xr:uid="{CEA71834-D13C-4C4C-BDC8-5D50298E246B}"/>
+    <hyperlink ref="J3" r:id="rId42" xr:uid="{E3B07663-33C4-6742-811D-4ACD1D19B294}"/>
+    <hyperlink ref="J2" r:id="rId43" xr:uid="{4C04431A-0103-524C-BCD7-7238D44DC26A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/services.xlsx
+++ b/data/services.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09B1CA2-6497-874C-975C-0E8F3FD7715E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68E7A6D-9AFD-AE4F-8C71-88882476FE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9460" yWindow="-26240" windowWidth="38860" windowHeight="26240" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
+    <workbookView xWindow="3700" yWindow="-19040" windowWidth="38860" windowHeight="26240" xr2:uid="{A5AEE678-706A-0541-94EF-D33D308866CC}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -3664,7 +3664,7 @@
   <dimension ref="A1:L57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="15"/>
